--- a/forwardprimer-v3_16.xlsx
+++ b/forwardprimer-v3_16.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_16" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F1441-TCTCAGTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCAGTCCATCGTCGGCAGCGTC</t>
+    <t>F1441-ACTCAGGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCAGGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F1442-CCTTCTCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTTCTCACTTCGTCGGCAGCGTC</t>
+    <t>F1442-ACTGAGATGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGAGATGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F1443-GTTCCTAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCCTAGCTTCGTCGGCAGCGTC</t>
+    <t>F1443-ACGATGAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGATGAGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F1444-GTCACAGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCACAGTCTTCGTCGGCAGCGTC</t>
+    <t>F1444-CAGTACCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTACCTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F1445-ACACAGCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACAGCATCTCGTCGGCAGCGTC</t>
+    <t>F1445-GTCACCATGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCACCATGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F1446-TCTCAGAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCAGAGAGTCGTCGGCAGCGTC</t>
+    <t>F1446-CGAGTTGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGAGTTGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F1447-ACAACCTTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACCTTCGTCGTCGGCAGCGTC</t>
+    <t>F1447-TAGACAAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGACAAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F1448-TGATCGAAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGATCGAAGTTCGTCGGCAGCGTC</t>
+    <t>F1448-ATCCTAGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCTAGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F1449-GTGAGCACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGAGCACTTTCGTCGGCAGCGTC</t>
+    <t>F1449-ACACACACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACACACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F1450-CTGACGACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGACGACTTTCGTCGGCAGCGTC</t>
+    <t>F1450-GAAGGATGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGGATGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F1451-CCTGATCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTGATCTCATCGTCGGCAGCGTC</t>
+    <t>F1451-TCAGCAACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGCAACTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F1452-TCTTGCTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTTGCTGTGTCGTCGGCAGCGTC</t>
+    <t>F1452-TTCGAACTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCGAACTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F1453-ACTCCTAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCCTAGAATCGTCGGCAGCGTC</t>
+    <t>F1453-ATGAGGATGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGAGGATGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F1454-TCTCTGCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTGCAACTCGTCGGCAGCGTC</t>
+    <t>F1454-TACTGTACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTGTACCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F1455-TCAGACCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGACCATGTCGTCGGCAGCGTC</t>
+    <t>F1455-TAGGTACGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTACGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F1456-AAGGTGAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTGAGCTTCGTCGGCAGCGTC</t>
+    <t>F1456-GTGAAGCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGAAGCATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F1457-TCGTCTGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTCTGAGTTCGTCGGCAGCGTC</t>
+    <t>F1457-ACCAAGCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCAAGCTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F1458-GGTCAAGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTCAAGACATCGTCGGCAGCGTC</t>
+    <t>F1458-TCCACAACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCACAACATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F1459-AACTGAGGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTGAGGTATCGTCGGCAGCGTC</t>
+    <t>F1459-GTCAACCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCAACCTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F1460-AAGTCCAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCCAAGATCGTCGGCAGCGTC</t>
+    <t>F1460-AGCACGATGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCACGATGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F1461-GGTCGTAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTCGTAGTTTCGTCGGCAGCGTC</t>
+    <t>F1461-TTGGACAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGACAACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F1462-ACAACGTACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACGTACTTCGTCGGCAGCGTC</t>
+    <t>F1462-TGGTTCTGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTTCTGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F1463-CTGTGTTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGTGTTCAGTCGTCGGCAGCGTC</t>
+    <t>F1463-ACAACACCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACACCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F1464-CGACCTTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGACCTTGATTCGTCGGCAGCGTC</t>
+    <t>F1464-GGAACCAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAACCAGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F1465-GCTACAGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTACAGAAGTCGTCGGCAGCGTC</t>
+    <t>F1465-TGCAACAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCAACAGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F1466-CAACCACTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACCACTTCTCGTCGGCAGCGTC</t>
+    <t>F1466-AAGTTCATGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTTCATGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F1467-ATCGACCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGACCTTCTCGTCGGCAGCGTC</t>
+    <t>F1467-AACCTTGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCTTGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F1468-TCACAGGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACAGGTTGTCGTCGGCAGCGTC</t>
+    <t>F1468-CATGTTGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGTTGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F1469-AGCTAGAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTAGAGTGTCGTCGGCAGCGTC</t>
+    <t>F1469-GTGTCTTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTCTTCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F1470-ATGGAACAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGGAACAGTTCGTCGGCAGCGTC</t>
+    <t>F1470-ACTTGACCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTTGACCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F1471-CTACTCATCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACTCATCGTCGTCGGCAGCGTC</t>
+    <t>F1471-TCATCACAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATCACAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F1472-ACATCCATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATCCATGATCGTCGGCAGCGTC</t>
+    <t>F1472-CTCTGGTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTGGTCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F1473-CAAGTACAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTACAGATCGTCGGCAGCGTC</t>
+    <t>F1473-ACCTTCCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTTCCTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F1474-ACAGTTCGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGTTCGAGTCGTCGGCAGCGTC</t>
+    <t>F1474-GATGCAAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGCAAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F1475-GTAGGTGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGGTGTAGTCGTCGGCAGCGTC</t>
+    <t>F1475-GTAGAACACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGAACACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F1476-CTCACAAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCACAAGTCTCGTCGGCAGCGTC</t>
+    <t>F1476-AGTAGCTTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGCTTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F1477-TGCAAGAAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCAAGAAGCTCGTCGGCAGCGTC</t>
+    <t>F1477-TACTCACACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTCACACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F1478-GTAGGTCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGGTCATGTCGTCGGCAGCGTC</t>
+    <t>F1478-ACTGGAGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGGAGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F1479-ATCTGTTGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTGTTGCATCGTCGGCAGCGTC</t>
+    <t>F1479-TACGAGTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGAGTGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F1480-GGTGTTGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTGTTGAGTTCGTCGGCAGCGTC</t>
+    <t>F1480-GTGCTCTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGCTCTGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F1481-ACAACTCCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACTCCAATCGTCGGCAGCGTC</t>
+    <t>F1481-TAGTGTGGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTGTGGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F1482-GCTTGAGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTTGAGCTATCGTCGGCAGCGTC</t>
+    <t>F1482-ATGGATCTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGATCTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F1483-ACACAGTACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACAGTACGTCGTCGGCAGCGTC</t>
+    <t>F1483-ATCATCGTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCATCGTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F1484-CTTCCTTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCCTTCTATCGTCGGCAGCGTC</t>
+    <t>F1484-AACAGAACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAGAACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F1485-GCAGACAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCAGACAGTATCGTCGGCAGCGTC</t>
+    <t>F1485-CAGCTGTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGCTGTCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F1486-CACGACTTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACGACTTCATCGTCGGCAGCGTC</t>
+    <t>F1486-TTCTGCTAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGCTAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F1487-ATGTCACTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTCACTGATCGTCGGCAGCGTC</t>
+    <t>F1487-TCGTGTAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTGTAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F1488-TAGGTAGTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTAGTCCTCGTCGGCAGCGTC</t>
+    <t>F1488-GTACTGAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACTGAGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F1489-GTGGATGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGGATGTTGTCGTCGGCAGCGTC</t>
+    <t>F1489-AAGCTGTTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTGTTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F1490-GTCTCGATGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTCGATGTTCGTCGGCAGCGTC</t>
+    <t>F1490-TAGAGGTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGGTGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F1491-AGAGACTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGACTCGTTCGTCGGCAGCGTC</t>
+    <t>F1491-ACTGGAAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGGAAGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F1492-TGCAACCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCAACCAAGTCGTCGGCAGCGTC</t>
+    <t>F1492-GTACAGGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACAGGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F1493-TGAGTGTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTGTCGTTCGTCGGCAGCGTC</t>
+    <t>F1493-TCGACCACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGACCACTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F1494-CTCTGCTACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTGCTACATCGTCGGCAGCGTC</t>
+    <t>F1494-TGACAACACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACAACACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F1495-TCACCACGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACCACGTATCGTCGGCAGCGTC</t>
+    <t>F1495-ACAACAGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACAGGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F1496-CAGAAGGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGAAGGTAGTCGTCGGCAGCGTC</t>
+    <t>F1496-AGTCTTCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCTTCTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F1497-TCCACAACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCACAACATTCGTCGGCAGCGTC</t>
+    <t>F1497-CAGCTACAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGCTACAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F1498-CTAGACTTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGACTTGCTCGTCGGCAGCGTC</t>
+    <t>F1498-GCATGGATGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATGGATGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F1499-GAGATGGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGATGGTCATCGTCGGCAGCGTC</t>
+    <t>F1499-ACTCATGACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCATGACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F1500-CTGTACTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGTACTCATTCGTCGGCAGCGTC</t>
+    <t>F1500-CTGCATGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGCATGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F1501-GAGTTCAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTTCAACTTCGTCGGCAGCGTC</t>
+    <t>F1501-GAAGACAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGACAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F1502-TCGTGCAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTGCAACTTCGTCGGCAGCGTC</t>
+    <t>F1502-TTGGATCCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGATCCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F1503-GACTCTTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTCTTGATTCGTCGGCAGCGTC</t>
+    <t>F1503-CAACAGGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACAGGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F1504-AACCTCAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCTCAACATCGTCGGCAGCGTC</t>
+    <t>F1504-TAGATGGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGATGGAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F1505-GTGTCTCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTCTCAGTTCGTCGGCAGCGTC</t>
+    <t>F1505-TAGGTCCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTCCTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F1506-TACACACATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACACACATCTCGTCGGCAGCGTC</t>
+    <t>F1506-TTCTCACAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTCACAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F1507-TCCTGAGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTGAGATCTCGTCGGCAGCGTC</t>
+    <t>F1507-GGTTCTCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTTCTCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F1508-AACTTGCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTTGCAGATCGTCGGCAGCGTC</t>
+    <t>F1508-ACAAGATGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAAGATGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F1509-GATCGTCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCGTCTTGTCGTCGGCAGCGTC</t>
+    <t>F1509-GTAGCACGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGCACGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F1510-AACAACCAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAACCAGGTCGTCGGCAGCGTC</t>
+    <t>F1510-GTTGATCCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGATCCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F1511-ACTGCTAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGCTAGTCTCGTCGGCAGCGTC</t>
+    <t>F1511-AGTACCTAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTACCTAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F1512-AAGACTGTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGACTGTCGTCGTCGGCAGCGTC</t>
+    <t>F1512-TTGCACGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGCACGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F1513-TCAACTCACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAACTCACGTCGTCGGCAGCGTC</t>
+    <t>F1513-TGTGGATGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGGATGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F1514-GTCTGTACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTGTACAGTCGTCGGCAGCGTC</t>
+    <t>F1514-GTCGACTACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCGACTACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F1515-TGTACGTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTACGTCGATCGTCGGCAGCGTC</t>
+    <t>F1515-ACCAGTCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCAGTCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F1516-TGCAACGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCAACGTGTTCGTCGGCAGCGTC</t>
+    <t>F1516-CCAACGTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCAACGTCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F1517-AGAGTTGTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTTGTGGTCGTCGGCAGCGTC</t>
+    <t>F1517-GGTGAAGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTGAAGGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F1518-GTTGTGAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGTGAAGGTCGTCGGCAGCGTC</t>
+    <t>F1518-GTTCACTTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCACTTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F1519-ACGTAGCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTAGCTCTTCGTCGGCAGCGTC</t>
+    <t>F1519-TCAGATCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGATCAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F1520-GATGACCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGACCAGATCGTCGGCAGCGTC</t>
+    <t>F1520-TAGATCCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGATCCTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F1521-CAGGAACTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGGAACTTGTCGTCGGCAGCGTC</t>
+    <t>F1521-AACCTACGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCTACGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F1522-TAGCTGCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTGCAGTTCGTCGGCAGCGTC</t>
+    <t>F1522-TTCAGACAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCAGACAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F1523-TCGAGTCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGAGTCACATCGTCGGCAGCGTC</t>
+    <t>F1523-GTAGGAACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGGAACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F1524-TAGCTGAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTGAGTCTCGTCGGCAGCGTC</t>
+    <t>F1524-GATGTAGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGTAGAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F1525-AGACAGGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACAGGTAGTCGTCGGCAGCGTC</t>
+    <t>F1525-CTAGTCGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGTCGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F1526-GCATCACACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATCACACATCGTCGGCAGCGTC</t>
+    <t>F1526-TCGACAGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGACAGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F1527-CCTACACGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTACACGATTCGTCGGCAGCGTC</t>
+    <t>F1527-AGAGCTAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGCTAGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F1528-TTGACACAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGACACAGTTCGTCGGCAGCGTC</t>
+    <t>F1528-ACAGTCATGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGTCATGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F1529-GTGACATGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGACATGTTTCGTCGGCAGCGTC</t>
+    <t>F1529-ACAACCTAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACCTAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F1530-TTGATGCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGATGCTACTCGTCGGCAGCGTC</t>
+    <t>F1530-CCAAGATGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCAAGATGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F1531-TTGACTACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGACTACGTTCGTCGGCAGCGTC</t>
+    <t>F1531-CACTGTTGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTGTTGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F1532-TCATCGACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATCGACTCTCGTCGGCAGCGTC</t>
+    <t>F1532-TGATCATGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATCATGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F1533-CTGCATCCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGCATCCTATCGTCGGCAGCGTC</t>
+    <t>F1533-TCTGTCTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTCTGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F1534-TACACGATCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACACGATCATCGTCGGCAGCGTC</t>
+    <t>F1534-ACAGATCACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGATCACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F1535-AACAGCACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAGCACTATCGTCGGCAGCGTC</t>
+    <t>F1535-AGATGTTGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATGTTGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F1536-AGAAGAGTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGAGTCGTCGTCGGCAGCGTC</t>
+    <t>F1536-ACGACTACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGACTACACTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
